--- a/02. PLANIFICACION/Backlog del Sprint.xlsx
+++ b/02. PLANIFICACION/Backlog del Sprint.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbravo-consultorge\Google Drive\Proyectos\Udemy\Cursos Creados\SCRUM práctico en proyectos de desarrollo de software\Resources\Plantillas de Gestión de Proyecto\03. EJECUCION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022\@FRANKY_DOCTORADO\TOPICOS DE SOFTWARE\TrabajoFinal\02. PLANIFICACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="255" windowWidth="15180" windowHeight="8355" tabRatio="522"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="10530" windowHeight="6510" tabRatio="522"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="25" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <definedName name="TrendOffset">#REF!</definedName>
     <definedName name="TrendSprintCount">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
   <si>
     <t>Est.</t>
   </si>
@@ -256,15 +256,27 @@
   <si>
     <t>Gerente del Proyecto:</t>
   </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>BravataSoft</t>
+  </si>
+  <si>
+    <t>Rosmery Hurtado Mesares</t>
+  </si>
+  <si>
+    <t>Franklin M. Gilvonio Yaranga</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Sprint &quot;#&quot; Backlog&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -290,6 +302,11 @@
       <b/>
       <sz val="10"/>
       <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -421,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -510,6 +527,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,7 +631,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -745,6 +763,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F57-410B-8CC7-C22FD2462254}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -863,6 +886,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F57-410B-8CC7-C22FD2462254}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -966,6 +994,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F57-410B-8CC7-C22FD2462254}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1070,7 +1103,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PA"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="229376816"/>
@@ -1127,7 +1160,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PA"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1160,7 +1193,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PA"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1172,7 +1205,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1304,6 +1337,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C639-478A-9093-3F96646D43E3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1422,6 +1460,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C639-478A-9093-3F96646D43E3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1525,6 +1568,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C639-478A-9093-3F96646D43E3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1629,7 +1677,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PA"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="229379536"/>
@@ -1686,7 +1734,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PA"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1719,7 +1767,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PA"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1731,7 +1779,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1863,6 +1911,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3116-4D96-816C-D1FFFF1347EC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1981,6 +2034,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3116-4D96-816C-D1FFFF1347EC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2084,6 +2142,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3116-4D96-816C-D1FFFF1347EC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2188,7 +2251,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PA"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="229381712"/>
@@ -2245,7 +2308,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PA"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2278,7 +2341,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PA"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2775,8 +2838,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AF71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:H3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2830,7 +2893,9 @@
       <c r="C3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="37" t="s">
+        <v>36</v>
+      </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
@@ -2865,7 +2930,9 @@
       <c r="C4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="37" t="s">
+        <v>37</v>
+      </c>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
@@ -2900,7 +2967,9 @@
       <c r="C5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
@@ -3627,8 +3696,8 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
-        <v>28</v>
+      <c r="E22" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
@@ -3686,8 +3755,8 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
-        <v>29</v>
+      <c r="E23" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="F23" t="s">
         <v>22</v>
@@ -3745,8 +3814,8 @@
       <c r="D24" s="1">
         <v>2</v>
       </c>
-      <c r="E24" t="s">
-        <v>30</v>
+      <c r="E24" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="F24" t="s">
         <v>22</v>
@@ -3804,8 +3873,8 @@
       <c r="D25" s="1">
         <v>2</v>
       </c>
-      <c r="E25" t="s">
-        <v>31</v>
+      <c r="E25" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="F25" t="s">
         <v>23</v>
@@ -4803,7 +4872,7 @@
   <dimension ref="B1:AF71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:H3"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8723,155 +8792,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A5124E24CAF14D46B2DD609ACFD84C07" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="de664effb0a23aec775b6884083f1507">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d8ef9ce5e2f992f4a0d6f8aeafc38bc7" ns2:_="">
-    <xsd:import namespace="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:_dlc_DocId" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdUrl" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdPersistId" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_dlc_DocId" ma:index="8" nillable="true" ma:displayName="Valor de Id. de documento" ma:description="El valor del identificador de documento asignado a este elemento." ma:internalName="_dlc_DocId" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdUrl" ma:index="9" nillable="true" ma:displayName="Id. de documento" ma:description="Vínculo permanente a este documento." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:URL">
-            <xsd:sequence>
-              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
-              <xsd:element name="Description" type="xsd:string" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdPersistId" ma:index="10" nillable="true" ma:displayName="Identificador persistente" ma:description="Mantener el identificador al agregar." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8880,18 +8800,11 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="3245187f-2b70-4b96-af74-b65b25777eca" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="100486ed-dfc5-4b43-a390-ed80e6fa3473">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100ECBD21C84E4C4B48B27A6166FAC051E5" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="bb6739421a50b20a8dee76844e41c5f8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="100486ed-dfc5-4b43-a390-ed80e6fa3473" xmlns:ns3="3245187f-2b70-4b96-af74-b65b25777eca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="093860096c687094a446cbcfc6e32844" ns2:_="" ns3:_="">
     <xsd:import namespace="100486ed-dfc5-4b43-a390-ed80e6fa3473"/>
@@ -9068,7 +8981,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="3245187f-2b70-4b96-af74-b65b25777eca" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="100486ed-dfc5-4b43-a390-ed80e6fa3473">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05002568-7AEC-4F01-8608-7227AF087BB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E379A4C6-2860-45CA-BC84-501A5C3DA816}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
@@ -9076,28 +9008,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C65E0F1F-D51E-4C07-A1AE-AA43A65D34E2}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C989DCCD-D1ED-4B0F-8CFB-8210ED0D719A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
+    <ds:schemaRef ds:uri="100486ed-dfc5-4b43-a390-ed80e6fa3473"/>
+    <ds:schemaRef ds:uri="3245187f-2b70-4b96-af74-b65b25777eca"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05002568-7AEC-4F01-8608-7227AF087BB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9114,10 +9039,8 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3245187f-2b70-4b96-af74-b65b25777eca"/>
+    <ds:schemaRef ds:uri="100486ed-dfc5-4b43-a390-ed80e6fa3473"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C989DCCD-D1ED-4B0F-8CFB-8210ED0D719A}"/>
 </file>
--- a/02. PLANIFICACION/Backlog del Sprint.xlsx
+++ b/02. PLANIFICACION/Backlog del Sprint.xlsx
@@ -9,68 +9,98 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="10530" windowHeight="6510" tabRatio="522"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="522" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="25" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="28" r:id="rId2"/>
-    <sheet name="Plantilla Sprint" sheetId="27" r:id="rId3"/>
+    <sheet name="Sprint 3" sheetId="29" r:id="rId3"/>
+    <sheet name="Plantilla Sprint" sheetId="27" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="AverageSpeedLastEight" localSheetId="2">OFFSET(#REF!,1,0,#REF!,1)</definedName>
     <definedName name="AverageSpeedLastEight">OFFSET(#REF!,1,0,#REF!,1)</definedName>
+    <definedName name="AverageSpeedRealized" localSheetId="2">OFFSET(#REF!,1,0,#REF!,1)</definedName>
     <definedName name="AverageSpeedRealized">OFFSET(#REF!,1,0,#REF!,1)</definedName>
+    <definedName name="AverageSpeedWorstThree" localSheetId="2">OFFSET(#REF!,1,0,#REF!,1)</definedName>
     <definedName name="AverageSpeedWorstThree">OFFSET(#REF!,1,0,#REF!,1)</definedName>
+    <definedName name="ColBottomCurrentScope" localSheetId="2">OFFSET(#REF!,1,0,#REF!,1)</definedName>
     <definedName name="ColBottomCurrentScope">OFFSET(#REF!,1,0,#REF!,1)</definedName>
+    <definedName name="ColTopRemainingWork" localSheetId="2">OFFSET(#REF!,1,0,#REF!,1)</definedName>
     <definedName name="ColTopRemainingWork">OFFSET(#REF!,1,0,#REF!,1)</definedName>
-    <definedName name="DoneDays" localSheetId="2">'Plantilla Sprint'!$F$18</definedName>
+    <definedName name="DoneDays" localSheetId="3">'Plantilla Sprint'!$F$18</definedName>
     <definedName name="DoneDays" localSheetId="0">'Sprint 1'!$F$18</definedName>
     <definedName name="DoneDays" localSheetId="1">'Sprint 2'!$F$18</definedName>
+    <definedName name="DoneDays" localSheetId="2">'Sprint 3'!$F$18</definedName>
     <definedName name="DoneDays">#REF!</definedName>
-    <definedName name="ImplementationDays" localSheetId="2">'Plantilla Sprint'!$D$16</definedName>
+    <definedName name="ImplementationDays" localSheetId="3">'Plantilla Sprint'!$D$16</definedName>
     <definedName name="ImplementationDays" localSheetId="0">'Sprint 1'!$D$16</definedName>
     <definedName name="ImplementationDays" localSheetId="1">'Sprint 2'!$D$16</definedName>
+    <definedName name="ImplementationDays" localSheetId="2">'Sprint 3'!$D$16</definedName>
     <definedName name="ImplementationDays">#REF!</definedName>
+    <definedName name="LastEight" localSheetId="2">IF(#REF!&gt;8,OFFSET(#REF!,#REF!-7,0,8,1),OFFSET(#REF!,1,0,#REF!-1,1))</definedName>
     <definedName name="LastEight">IF(#REF!&gt;8,OFFSET(#REF!,#REF!-7,0,8,1),OFFSET(#REF!,1,0,#REF!-1,1))</definedName>
+    <definedName name="LastPlanned" localSheetId="2">IF(OFFSET(#REF!,1,0,1,1)="",1,OFFSET(#REF!,#REF!,0,1,1))</definedName>
     <definedName name="LastPlanned">IF(OFFSET(#REF!,1,0,1,1)="",1,OFFSET(#REF!,#REF!,0,1,1))</definedName>
+    <definedName name="LastRealized" localSheetId="2">IF(OFFSET(#REF!,1,0,1,1)="",1,OFFSET(#REF!,#REF!,0,1,1))</definedName>
     <definedName name="LastRealized">IF(OFFSET(#REF!,1,0,1,1)="",1,OFFSET(#REF!,#REF!,0,1,1))</definedName>
+    <definedName name="PBCurrentBottom" localSheetId="2">OFFSET(#REF!,1,0,#REF!,1)</definedName>
     <definedName name="PBCurrentBottom">OFFSET(#REF!,1,0,#REF!,1)</definedName>
+    <definedName name="PBTrend" localSheetId="2">OFFSET(#REF!,1,0,#REF!,1)</definedName>
     <definedName name="PBTrend">OFFSET(#REF!,1,0,#REF!,1)</definedName>
+    <definedName name="PlannedSpeed" localSheetId="2">OFFSET(#REF!,1,0,#REF!,1)</definedName>
     <definedName name="PlannedSpeed">OFFSET(#REF!,1,0,#REF!,1)</definedName>
+    <definedName name="ProductBacklog" localSheetId="2">#REF!</definedName>
     <definedName name="ProductBacklog">#REF!</definedName>
+    <definedName name="RealizedSpeed" localSheetId="2">OFFSET(#REF!,1,0,#REF!,1)</definedName>
     <definedName name="RealizedSpeed">OFFSET(#REF!,1,0,#REF!,1)</definedName>
-    <definedName name="RealValues" localSheetId="2">OFFSET('Plantilla Sprint'!$H$17,0,0,1,'Plantilla Sprint'!DoneDays)</definedName>
+    <definedName name="RealValues" localSheetId="3">OFFSET('Plantilla Sprint'!$H$17,0,0,1,'Plantilla Sprint'!DoneDays)</definedName>
     <definedName name="RealValues" localSheetId="0">OFFSET('Sprint 1'!$H$17,0,0,1,'Sprint 1'!DoneDays)</definedName>
     <definedName name="RealValues" localSheetId="1">OFFSET('Sprint 2'!$H$17,0,0,1,'Sprint 2'!DoneDays)</definedName>
+    <definedName name="RealValues" localSheetId="2">OFFSET('Sprint 3'!$H$17,0,0,1,'Sprint 3'!DoneDays)</definedName>
+    <definedName name="Sprint" localSheetId="2">#REF!</definedName>
     <definedName name="Sprint">#REF!</definedName>
+    <definedName name="SprintCount" localSheetId="2">#REF!</definedName>
     <definedName name="SprintCount">#REF!</definedName>
+    <definedName name="SprintsInTrend" localSheetId="2">#REF!</definedName>
     <definedName name="SprintsInTrend">#REF!</definedName>
-    <definedName name="SprintTasks" localSheetId="2">'Plantilla Sprint'!$C$21:$AF$70</definedName>
-    <definedName name="SprintTasks" localSheetId="0">'Sprint 1'!$C$21:$AF$70</definedName>
-    <definedName name="SprintTasks" localSheetId="1">'Sprint 2'!$C$21:$AF$70</definedName>
+    <definedName name="SprintTasks" localSheetId="3">'Plantilla Sprint'!$C$21:$AF$70</definedName>
+    <definedName name="SprintTasks" localSheetId="0">'Sprint 1'!$C$21:$AF$69</definedName>
+    <definedName name="SprintTasks" localSheetId="1">'Sprint 2'!$C$21:$AF$69</definedName>
+    <definedName name="SprintTasks" localSheetId="2">'Sprint 3'!$C$21:$AF$69</definedName>
     <definedName name="SprintTasks">#REF!</definedName>
+    <definedName name="Status" localSheetId="2">#REF!</definedName>
     <definedName name="Status">#REF!</definedName>
+    <definedName name="StoryName" localSheetId="2">#REF!</definedName>
     <definedName name="StoryName">#REF!</definedName>
-    <definedName name="TaskRows" localSheetId="2">'Plantilla Sprint'!$D$18</definedName>
+    <definedName name="TaskRows" localSheetId="3">'Plantilla Sprint'!$D$18</definedName>
     <definedName name="TaskRows" localSheetId="0">'Sprint 1'!$D$18</definedName>
     <definedName name="TaskRows" localSheetId="1">'Sprint 2'!$D$18</definedName>
+    <definedName name="TaskRows" localSheetId="2">'Sprint 3'!$D$18</definedName>
     <definedName name="TaskRows">#REF!</definedName>
-    <definedName name="TaskStatus" localSheetId="2">'Plantilla Sprint'!$F$21:$F$65</definedName>
-    <definedName name="TaskStatus" localSheetId="0">'Sprint 1'!$F$21:$F$65</definedName>
-    <definedName name="TaskStatus" localSheetId="1">'Sprint 2'!$F$21:$F$65</definedName>
+    <definedName name="TaskStatus" localSheetId="3">'Plantilla Sprint'!$F$21:$F$65</definedName>
+    <definedName name="TaskStatus" localSheetId="0">'Sprint 1'!$F$21:$F$64</definedName>
+    <definedName name="TaskStatus" localSheetId="1">'Sprint 2'!$F$21:$F$64</definedName>
+    <definedName name="TaskStatus" localSheetId="2">'Sprint 3'!$F$21:$F$64</definedName>
     <definedName name="TaskStatus">#REF!</definedName>
-    <definedName name="TaskStoryID" localSheetId="2">'Plantilla Sprint'!$D$21:$D$60</definedName>
-    <definedName name="TaskStoryID" localSheetId="0">'Sprint 1'!$D$21:$D$60</definedName>
-    <definedName name="TaskStoryID" localSheetId="1">'Sprint 2'!$D$21:$D$60</definedName>
+    <definedName name="TaskStoryID" localSheetId="3">'Plantilla Sprint'!$D$21:$D$60</definedName>
+    <definedName name="TaskStoryID" localSheetId="0">'Sprint 1'!$D$21:$D$59</definedName>
+    <definedName name="TaskStoryID" localSheetId="1">'Sprint 2'!$D$21:$D$59</definedName>
+    <definedName name="TaskStoryID" localSheetId="2">'Sprint 3'!$D$21:$D$59</definedName>
     <definedName name="TaskStoryID">#REF!</definedName>
-    <definedName name="TotalEffort" localSheetId="2">'Plantilla Sprint'!$G$17</definedName>
+    <definedName name="TotalEffort" localSheetId="3">'Plantilla Sprint'!$G$17</definedName>
     <definedName name="TotalEffort" localSheetId="0">'Sprint 1'!$G$17</definedName>
     <definedName name="TotalEffort" localSheetId="1">'Sprint 2'!$G$17</definedName>
+    <definedName name="TotalEffort" localSheetId="2">'Sprint 3'!$G$17</definedName>
     <definedName name="TotalEffort">#REF!</definedName>
-    <definedName name="TrendDays" localSheetId="2">'Plantilla Sprint'!$F$20</definedName>
+    <definedName name="TrendDays" localSheetId="3">'Plantilla Sprint'!$F$20</definedName>
     <definedName name="TrendDays" localSheetId="0">'Sprint 1'!$F$20</definedName>
     <definedName name="TrendDays" localSheetId="1">'Sprint 2'!$F$20</definedName>
+    <definedName name="TrendDays" localSheetId="2">'Sprint 3'!$F$20</definedName>
     <definedName name="TrendDays">#REF!</definedName>
+    <definedName name="TrendOffset" localSheetId="2">#REF!</definedName>
     <definedName name="TrendOffset">#REF!</definedName>
+    <definedName name="TrendSprintCount" localSheetId="2">#REF!</definedName>
     <definedName name="TrendSprintCount">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -149,8 +179,32 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Petri Heiramo</author>
+  </authors>
+  <commentList>
+    <comment ref="C16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Count only active working and implementation days. Do not include Planning Day or Sprint Review.
+E.g. a 4-week Sprint would most likely have 18 implementation days.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="39">
   <si>
     <t>Est.</t>
   </si>
@@ -215,9 +269,6 @@
     <t>Faltante en los días siguientes…</t>
   </si>
   <si>
-    <t>Terminado</t>
-  </si>
-  <si>
     <t>En Progreso</t>
   </si>
   <si>
@@ -234,18 +285,6 @@
   </si>
   <si>
     <t>Tarea 4</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t>Carolina</t>
-  </si>
-  <si>
-    <t>Lucia</t>
   </si>
   <si>
     <t>Nombre del Proyecto:</t>
@@ -267,6 +306,21 @@
   </si>
   <si>
     <t>Franklin M. Gilvonio Yaranga</t>
+  </si>
+  <si>
+    <t>Tarea 5</t>
+  </si>
+  <si>
+    <t>Tarea 6</t>
+  </si>
+  <si>
+    <t>Tarea 7</t>
+  </si>
+  <si>
+    <t>Tarea 8</t>
+  </si>
+  <si>
+    <t>Tarea 9</t>
   </si>
 </sst>
 </file>
@@ -524,15 +578,43 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -686,49 +768,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>62</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -808,52 +890,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>62</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.8</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.6</c:v>
+                  <c:v>83.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.4</c:v>
+                  <c:v>77.1875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.200000000000003</c:v>
+                  <c:v>71.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>65.3125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.799999999999997</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>53.4375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.399999999999999</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1999999999999957</c:v>
+                  <c:v>41.5625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>35.625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>29.6875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>23.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>17.8125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>11.875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>5.9375</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -916,49 +998,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>62.844444444444441</c:v>
+                  <c:v>96.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.411111111111104</c:v>
+                  <c:v>90.257142857142853</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.977777777777774</c:v>
+                  <c:v>83.714285714285722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.544444444444437</c:v>
+                  <c:v>77.171428571428578</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.111111111111107</c:v>
+                  <c:v>70.628571428571433</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.677777777777777</c:v>
+                  <c:v>64.085714285714289</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.24444444444444</c:v>
+                  <c:v>57.542857142857144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.81111111111111</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.37777777777778</c:v>
+                  <c:v>44.457142857142856</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>37.914285714285711</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>31.371428571428567</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>24.828571428571436</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>18.285714285714292</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>11.742857142857147</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>5.2000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1260,37 +1342,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>62</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1382,37 +1464,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>62</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.8</c:v>
+                  <c:v>109.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.6</c:v>
+                  <c:v>98.181818181818187</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.4</c:v>
+                  <c:v>87.27272727272728</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.200000000000003</c:v>
+                  <c:v>76.363636363636374</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>65.454545454545467</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.799999999999997</c:v>
+                  <c:v>54.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>43.63636363636364</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.399999999999999</c:v>
+                  <c:v>32.727272727272734</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1999999999999957</c:v>
+                  <c:v>21.818181818181827</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>10.909090909090921</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1490,37 +1572,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>62.844444444444441</c:v>
+                  <c:v>119.59090909090909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.411111111111104</c:v>
+                  <c:v>107.72727272727273</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.977777777777774</c:v>
+                  <c:v>95.863636363636374</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.544444444444437</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.111111111111107</c:v>
+                  <c:v>72.136363636363626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.677777777777777</c:v>
+                  <c:v>60.272727272727266</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.24444444444444</c:v>
+                  <c:v>48.409090909090907</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.81111111111111</c:v>
+                  <c:v>36.545454545454533</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.37777777777778</c:v>
+                  <c:v>24.681818181818159</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>12.818181818181799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.95454545454543904</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1779,6 +1861,580 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17845828933474128"/>
+          <c:y val="8.8235610910252865E-2"/>
+          <c:w val="0.81731784582893352"/>
+          <c:h val="0.8308853360715478"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Daily Progress</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9999FF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$H$17:$AF$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F8B-4114-9C5E-F4A56F38E7A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="229379536"/>
+        <c:axId val="229383888"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ideal Progress</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="969696"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$H$18:$AF$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7F8B-4114-9C5E-F4A56F38E7A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Current Trend</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$H$19:$AF$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7F8B-4114-9C5E-F4A56F38E7A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="229379536"/>
+        <c:axId val="229383888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="229379536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="229383888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="229383888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Work Remaining (h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.13938754040042517"/>
+              <c:y val="0.13970665431526941"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="550" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="229379536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="C0C0C0"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="808080"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4477560139693281E-3"/>
+          <c:y val="6.6176470588235295E-2"/>
+          <c:w val="0.11404438081603437"/>
+          <c:h val="0.42647213215995061"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="735" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="475" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2427,6 +3083,43 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2836,10 +3529,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="B1:AF71"/>
+  <dimension ref="B1:AF70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2891,15 +3584,15 @@
     <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="21"/>
       <c r="C3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+        <v>27</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
       <c r="I3" s="13"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
@@ -2928,15 +3621,15 @@
     <row r="4" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="21"/>
       <c r="C4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+        <v>28</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="13"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
@@ -2965,15 +3658,15 @@
     <row r="5" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="21"/>
       <c r="C5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+        <v>29</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="13"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
@@ -3098,7 +3791,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="3"/>
@@ -3139,7 +3832,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>13</v>
@@ -3149,67 +3842,67 @@
       </c>
       <c r="G17" s="4">
         <f ca="1">SUM(OFFSET(G21,1,0,TaskRows,1))</f>
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="H17" s="4">
         <f ca="1">IF(AND(SUM(OFFSET(H21,1,0,TaskRows,1))=0),0,SUM(OFFSET(H21,1,0,TaskRows,1)))</f>
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" ref="I17:AF17" ca="1" si="0">IF(AND(SUM(OFFSET(I21,1,0,TaskRows,1))=0),"",SUM(OFFSET(I21,1,0,TaskRows,1)))</f>
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="O17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="P17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q17" s="4" t="str">
+        <v>46</v>
+      </c>
+      <c r="Q17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="R17" s="4" t="str">
+        <v>39</v>
+      </c>
+      <c r="R17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="S17" s="4" t="str">
+        <v>31</v>
+      </c>
+      <c r="S17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="T17" s="4" t="str">
+        <v>24</v>
+      </c>
+      <c r="T17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="U17" s="4" t="str">
+        <v>17</v>
+      </c>
+      <c r="U17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="V17" s="4" t="str">
+        <v>10</v>
+      </c>
+      <c r="V17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="W17" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3257,79 +3950,79 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <f>IF(COUNTA(C22:C249)=0,1,COUNTA(C22:C249))</f>
-        <v>4</v>
+        <f>IF(COUNTA(C22:C248)=0,1,COUNTA(C22:C248))</f>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="1">
         <f ca="1">IF(COUNTIF(H17:AF17,"&gt;0")=0,1,COUNTIF(H17:AF17,"&gt;0"))</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H18" s="1">
         <f ca="1">IF(H21="","",$G17-$G17/($D16-1)*(H21-1))</f>
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" ref="I18:AF18" ca="1" si="1">IF(I21="","",TotalEffort-TotalEffort/(ImplementationDays)*(I21-1))</f>
-        <v>55.8</v>
+        <v>89.0625</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.6</v>
+        <v>83.125</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.4</v>
+        <v>77.1875</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.200000000000003</v>
+        <v>71.25</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>65.3125</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.799999999999997</v>
+        <v>59.375</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.600000000000001</v>
+        <v>53.4375</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>12.399999999999999</v>
+        <v>47.5</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1999999999999957</v>
-      </c>
-      <c r="R18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>41.5625</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>35.625</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>29.6875</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>23.75</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.8125</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.875</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.9375</v>
       </c>
       <c r="X18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3379,63 +4072,63 @@
       <c r="F19" s="1"/>
       <c r="H19" s="1">
         <f t="shared" ref="H19:AF19" ca="1" si="2">IF(TREND(OFFSET($H17,0,DoneDays-TrendDays,1,TrendDays),OFFSET($H20,0,DoneDays-TrendDays,1,TrendDays),H20)&lt;0,"",TREND(OFFSET($H17,0,DoneDays-TrendDays,1,TrendDays),OFFSET($H20,0,DoneDays-TrendDays,1,TrendDays),H20))</f>
-        <v>62.844444444444441</v>
+        <v>96.8</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>55.411111111111104</v>
+        <v>90.257142857142853</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>47.977777777777774</v>
+        <v>83.714285714285722</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>40.544444444444437</v>
+        <v>77.171428571428578</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>33.111111111111107</v>
+        <v>70.628571428571433</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>25.677777777777777</v>
+        <v>64.085714285714289</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>18.24444444444444</v>
+        <v>57.542857142857144</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10.81111111111111</v>
+        <v>51</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.37777777777778</v>
-      </c>
-      <c r="Q19" s="1" t="str">
+        <v>44.457142857142856</v>
+      </c>
+      <c r="Q19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="R19" s="1" t="str">
+        <v>37.914285714285711</v>
+      </c>
+      <c r="R19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="S19" s="1" t="str">
+        <v>31.371428571428567</v>
+      </c>
+      <c r="S19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="T19" s="1" t="str">
+        <v>24.828571428571436</v>
+      </c>
+      <c r="T19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="U19" s="1" t="str">
+        <v>18.285714285714292</v>
+      </c>
+      <c r="U19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="V19" s="1" t="str">
+        <v>11.742857142857147</v>
+      </c>
+      <c r="V19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>5.2000000000000028</v>
       </c>
       <c r="W19" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3488,7 +4181,7 @@
       </c>
       <c r="F20" s="1">
         <f ca="1">IF(DoneDays&gt;D17,D17,DoneDays)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H20" s="1">
         <f ca="1">IF(DoneDays&gt;G20,G20+1,"")</f>
@@ -3625,29 +4318,29 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="R21" s="6" t="str">
+      <c r="R21" s="6">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S21" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="S21" s="6">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T21" s="6" t="str">
+        <v>12</v>
+      </c>
+      <c r="T21" s="6">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="U21" s="6" t="str">
+        <v>13</v>
+      </c>
+      <c r="U21" s="6">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V21" s="6" t="str">
+        <v>14</v>
+      </c>
+      <c r="V21" s="6">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="W21" s="6" t="str">
+        <v>15</v>
+      </c>
+      <c r="W21" s="6">
         <f t="shared" si="3"/>
-        <v/>
+        <v>16</v>
       </c>
       <c r="X21" s="6" t="str">
         <f t="shared" si="3"/>
@@ -3691,58 +4384,68 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="38" t="s">
-        <v>35</v>
+      <c r="E22" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" ref="H22:H66" si="4">IF(OR(H$21="",$G22=""),"",G22)</f>
-        <v>15</v>
+        <f t="shared" ref="H22:I65" si="4">IF(OR(H$21="",$G22=""),"",G22)</f>
+        <v>30</v>
       </c>
       <c r="I22" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K22" s="1">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L22" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M22" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N22" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="O22" s="1">
+        <v>16</v>
+      </c>
+      <c r="P22" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>12</v>
+      </c>
+      <c r="R22" s="1">
+        <v>10</v>
+      </c>
+      <c r="S22" s="1">
+        <v>8</v>
+      </c>
+      <c r="T22" s="1">
+        <v>6</v>
+      </c>
+      <c r="U22" s="1">
+        <v>4</v>
+      </c>
+      <c r="V22" s="1">
         <v>2</v>
       </c>
-      <c r="P22" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="1">
+      <c r="W22" s="1">
         <v>0</v>
-      </c>
-      <c r="AE22" s="1" t="str">
-        <f t="shared" ref="AE22:AF37" si="5">IF(OR(AE$21="",$G22=""),"",AD22)</f>
-        <v/>
-      </c>
-      <c r="AF22" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
       </c>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.2">
@@ -3750,181 +4453,160 @@
         <v>1.2</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="F23" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="1">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I23" s="1">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J23" s="1">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K23" s="1">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="L23" s="1">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M23" s="1">
+        <v>30</v>
+      </c>
+      <c r="N23" s="1">
+        <v>29</v>
+      </c>
+      <c r="O23" s="1">
+        <v>26</v>
+      </c>
+      <c r="P23" s="1">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>20</v>
+      </c>
+      <c r="R23" s="1">
+        <v>16</v>
+      </c>
+      <c r="S23" s="1">
+        <v>12</v>
+      </c>
+      <c r="T23" s="1">
         <v>8</v>
       </c>
-      <c r="N23" s="1">
-        <v>5</v>
-      </c>
-      <c r="O23" s="1">
-        <v>3</v>
-      </c>
-      <c r="P23" s="1">
+      <c r="U23" s="1">
+        <v>4</v>
+      </c>
+      <c r="V23" s="1">
         <v>2</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="W23" s="1">
         <v>0</v>
-      </c>
-      <c r="AE23" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AF23" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
       </c>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="F24" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>IF(OR(H$21="",$G24=""),"",G24)</f>
+        <v>25</v>
       </c>
       <c r="I24" s="1">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J24" s="1">
+        <v>21</v>
+      </c>
+      <c r="K24" s="1">
+        <v>19</v>
+      </c>
+      <c r="L24" s="1">
+        <v>17</v>
+      </c>
+      <c r="M24" s="1">
+        <v>15</v>
+      </c>
+      <c r="N24" s="1">
+        <v>13</v>
+      </c>
+      <c r="O24" s="1">
+        <v>11</v>
+      </c>
+      <c r="P24" s="1">
         <v>9</v>
       </c>
-      <c r="K24" s="1">
-        <v>8</v>
-      </c>
-      <c r="L24" s="1">
-        <v>6</v>
-      </c>
-      <c r="M24" s="1">
+      <c r="Q24" s="1">
+        <v>7</v>
+      </c>
+      <c r="R24" s="1">
+        <v>5</v>
+      </c>
+      <c r="S24" s="1">
         <v>4</v>
       </c>
-      <c r="N24" s="1">
+      <c r="T24" s="1">
         <v>3</v>
       </c>
-      <c r="O24" s="1">
+      <c r="U24" s="1">
         <v>2</v>
       </c>
-      <c r="P24" s="1">
+      <c r="V24" s="1">
         <v>1</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="W24" s="1">
         <v>0</v>
       </c>
-      <c r="AE24" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AF24" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="1">
-        <v>18</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="I25" s="1">
-        <v>17</v>
-      </c>
-      <c r="J25" s="1">
-        <v>15</v>
-      </c>
-      <c r="K25" s="1">
-        <v>13</v>
-      </c>
-      <c r="L25" s="1">
-        <v>10</v>
-      </c>
-      <c r="M25" s="1">
-        <v>7</v>
-      </c>
-      <c r="N25" s="1">
-        <v>4</v>
-      </c>
-      <c r="O25" s="1">
-        <v>3</v>
-      </c>
-      <c r="P25" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0</v>
+      <c r="F25" t="str">
+        <f t="shared" ref="F25:F62" si="5">IF(C25&lt;&gt;"","Planned","")</f>
+        <v/>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="AE25" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AE22:AF36" si="6">IF(OR(AE$21="",$G25=""),"",AD25)</f>
         <v/>
       </c>
       <c r="AF25" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.2">
       <c r="F26" t="str">
-        <f t="shared" ref="F26:F63" si="6">IF(C26&lt;&gt;"","Planned","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H26" s="1" t="str">
@@ -3932,197 +4614,197 @@
         <v/>
       </c>
       <c r="AE26" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AF26" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:32" x14ac:dyDescent="0.2">
       <c r="F27" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE27" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H27" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE27" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AF27" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.2">
       <c r="F28" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE28" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE28" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AF28" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.2">
       <c r="F29" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE29" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H29" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE29" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AF29" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.2">
       <c r="F30" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE30" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H30" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE30" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AF30" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.2">
       <c r="F31" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE31" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H31" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE31" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AF31" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.2">
       <c r="F32" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE32" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H32" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE32" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AF32" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F33" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE33" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H33" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE33" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AF33" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE34" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H34" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE34" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AF34" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F35" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE35" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H35" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE35" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AF35" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE36" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H36" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE36" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AF36" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H37" s="1" t="str">
@@ -4130,17 +4812,17 @@
         <v/>
       </c>
       <c r="AE37" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AE37:AF52" si="7">IF(OR(AE$21="",$G37=""),"",AD37)</f>
         <v/>
       </c>
       <c r="AF37" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H38" s="1" t="str">
@@ -4148,7 +4830,7 @@
         <v/>
       </c>
       <c r="AE38" s="1" t="str">
-        <f t="shared" ref="AE38:AF53" si="7">IF(OR(AE$21="",$G38=""),"",AD38)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF38" s="1" t="str">
@@ -4158,7 +4840,7 @@
     </row>
     <row r="39" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H39" s="1" t="str">
@@ -4176,7 +4858,7 @@
     </row>
     <row r="40" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H40" s="1" t="str">
@@ -4194,7 +4876,7 @@
     </row>
     <row r="41" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H41" s="1" t="str">
@@ -4212,7 +4894,7 @@
     </row>
     <row r="42" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H42" s="1" t="str">
@@ -4230,7 +4912,7 @@
     </row>
     <row r="43" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H43" s="1" t="str">
@@ -4248,7 +4930,7 @@
     </row>
     <row r="44" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H44" s="1" t="str">
@@ -4266,7 +4948,7 @@
     </row>
     <row r="45" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H45" s="1" t="str">
@@ -4284,7 +4966,7 @@
     </row>
     <row r="46" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H46" s="1" t="str">
@@ -4302,7 +4984,7 @@
     </row>
     <row r="47" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F47" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H47" s="1" t="str">
@@ -4320,7 +5002,7 @@
     </row>
     <row r="48" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H48" s="1" t="str">
@@ -4338,7 +5020,7 @@
     </row>
     <row r="49" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H49" s="1" t="str">
@@ -4356,7 +5038,7 @@
     </row>
     <row r="50" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H50" s="1" t="str">
@@ -4374,7 +5056,7 @@
     </row>
     <row r="51" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H51" s="1" t="str">
@@ -4392,7 +5074,7 @@
     </row>
     <row r="52" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H52" s="1" t="str">
@@ -4410,7 +5092,7 @@
     </row>
     <row r="53" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H53" s="1" t="str">
@@ -4418,17 +5100,17 @@
         <v/>
       </c>
       <c r="AE53" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AE53:AF64" si="8">IF(OR(AE$21="",$G53=""),"",AD53)</f>
         <v/>
       </c>
       <c r="AF53" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H54" s="1" t="str">
@@ -4436,7 +5118,7 @@
         <v/>
       </c>
       <c r="AE54" s="1" t="str">
-        <f t="shared" ref="AE54:AF65" si="8">IF(OR(AE$21="",$G54=""),"",AD54)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AF54" s="1" t="str">
@@ -4446,7 +5128,7 @@
     </row>
     <row r="55" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H55" s="1" t="str">
@@ -4464,7 +5146,7 @@
     </row>
     <row r="56" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H56" s="1" t="str">
@@ -4482,7 +5164,7 @@
     </row>
     <row r="57" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H57" s="1" t="str">
@@ -4500,7 +5182,7 @@
     </row>
     <row r="58" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H58" s="1" t="str">
@@ -4518,7 +5200,7 @@
     </row>
     <row r="59" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H59" s="1" t="str">
@@ -4536,7 +5218,7 @@
     </row>
     <row r="60" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H60" s="1" t="str">
@@ -4554,11 +5236,99 @@
     </row>
     <row r="61" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H61" s="1" t="str">
         <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I61" s="1" t="str">
+        <f t="shared" ref="I61:AD61" si="9">IF(OR(I$21="",$G61=""),"",H61)</f>
+        <v/>
+      </c>
+      <c r="J61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="P61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Q61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="U61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="V61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="W61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AA61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AD61" s="1" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AE61" s="1" t="str">
@@ -4572,7 +5342,7 @@
     </row>
     <row r="62" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H62" s="1" t="str">
@@ -4580,91 +5350,91 @@
         <v/>
       </c>
       <c r="I62" s="1" t="str">
-        <f t="shared" ref="I62:AD62" si="9">IF(OR(I$21="",$G62=""),"",H62)</f>
+        <f t="shared" ref="I62:AD62" si="10">IF(OR(I$21="",$G62=""),"",H62)</f>
         <v/>
       </c>
       <c r="J62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Q62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="V62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Y62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Z62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AB62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE62" s="1" t="str">
@@ -4677,100 +5447,11 @@
       </c>
     </row>
     <row r="63" spans="6:32" x14ac:dyDescent="0.2">
-      <c r="F63" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="F63" t="s">
+        <v>7</v>
       </c>
       <c r="H63" s="1" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I63" s="1" t="str">
-        <f t="shared" ref="I63:AD63" si="10">IF(OR(I$21="",$G63=""),"",H63)</f>
-        <v/>
-      </c>
-      <c r="J63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="K63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="M63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="N63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="O63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="P63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Q63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="R63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="T63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="U63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="V63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="W63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="X63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Y63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Z63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AA63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AB63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AC63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD63" s="1" t="str">
-        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE63" s="1" t="str">
@@ -4784,7 +5465,7 @@
     </row>
     <row r="64" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H64" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4799,35 +5480,18 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="6:32" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H65" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AE65" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AF65" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="6:32" x14ac:dyDescent="0.2">
-      <c r="F66" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="6:32" x14ac:dyDescent="0.2">
-      <c r="F71" t="str">
-        <f>IF(C71&lt;&gt;"","Planned","")</f>
+    </row>
+    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F70" t="str">
+        <f>IF(C70&lt;&gt;"","Planned","")</f>
         <v/>
       </c>
     </row>
@@ -4837,24 +5501,24 @@
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="D5:H5"/>
   </mergeCells>
-  <conditionalFormatting sqref="C26:AF65 L22:AF25">
-    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="C25:AF64 L22:AF24">
+    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
       <formula>$F22="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
       <formula>$F22="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:AF65">
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="B22:AF64">
+    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
       <formula>$F22="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
       <formula>$F22="En Progreso"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F22:F71 F10:F15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F10:F15 F22:F70">
       <formula1>"Por Hacer,En Progreso,Terminado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4869,10 +5533,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="B1:AF71"/>
+  <dimension ref="B1:AF70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4924,13 +5588,15 @@
     <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="21"/>
       <c r="C3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+        <v>27</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
       <c r="I3" s="13"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
@@ -4959,13 +5625,15 @@
     <row r="4" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="21"/>
       <c r="C4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+        <v>28</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="13"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
@@ -4994,13 +5662,15 @@
     <row r="5" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="21"/>
       <c r="C5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+        <v>29</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="13"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
@@ -5125,7 +5795,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="3"/>
@@ -5166,7 +5836,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>13</v>
@@ -5176,51 +5846,51 @@
       </c>
       <c r="G17" s="4">
         <f ca="1">SUM(OFFSET(G21,1,0,TaskRows,1))</f>
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="H17" s="4">
         <f ca="1">IF(AND(SUM(OFFSET(H21,1,0,TaskRows,1))=0),0,SUM(OFFSET(H21,1,0,TaskRows,1)))</f>
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" ref="I17:AF17" ca="1" si="0">IF(AND(SUM(OFFSET(I21,1,0,TaskRows,1))=0),"",SUM(OFFSET(I21,1,0,TaskRows,1)))</f>
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="O17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="P17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q17" s="4" t="str">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="R17" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="R17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="S17" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5284,59 +5954,59 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <f>IF(COUNTA(C22:C249)=0,1,COUNTA(C22:C249))</f>
-        <v>4</v>
+        <f>IF(COUNTA(C22:C248)=0,1,COUNTA(C22:C248))</f>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="1">
         <f ca="1">IF(COUNTIF(H17:AF17,"&gt;0")=0,1,COUNTIF(H17:AF17,"&gt;0"))</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H18" s="1">
         <f ca="1">IF(H21="","",$G17-$G17/($D16-1)*(H21-1))</f>
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" ref="I18:AF18" ca="1" si="1">IF(I21="","",TotalEffort-TotalEffort/(ImplementationDays)*(I21-1))</f>
-        <v>55.8</v>
+        <v>109.09090909090909</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.6</v>
+        <v>98.181818181818187</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.4</v>
+        <v>87.27272727272728</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.200000000000003</v>
+        <v>76.363636363636374</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>65.454545454545467</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.799999999999997</v>
+        <v>54.545454545454547</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.600000000000001</v>
+        <v>43.63636363636364</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>12.399999999999999</v>
+        <v>32.727272727272734</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1999999999999957</v>
-      </c>
-      <c r="R18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>21.818181818181827</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.909090909090921</v>
       </c>
       <c r="S18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5406,47 +6076,47 @@
       <c r="F19" s="1"/>
       <c r="H19" s="1">
         <f t="shared" ref="H19:AF19" ca="1" si="2">IF(TREND(OFFSET($H17,0,DoneDays-TrendDays,1,TrendDays),OFFSET($H20,0,DoneDays-TrendDays,1,TrendDays),H20)&lt;0,"",TREND(OFFSET($H17,0,DoneDays-TrendDays,1,TrendDays),OFFSET($H20,0,DoneDays-TrendDays,1,TrendDays),H20))</f>
-        <v>62.844444444444441</v>
+        <v>119.59090909090909</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>55.411111111111104</v>
+        <v>107.72727272727273</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>47.977777777777774</v>
+        <v>95.863636363636374</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>40.544444444444437</v>
+        <v>84</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>33.111111111111107</v>
+        <v>72.136363636363626</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>25.677777777777777</v>
+        <v>60.272727272727266</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>18.24444444444444</v>
+        <v>48.409090909090907</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10.81111111111111</v>
+        <v>36.545454545454533</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.37777777777778</v>
-      </c>
-      <c r="Q19" s="1" t="str">
+        <v>24.681818181818159</v>
+      </c>
+      <c r="Q19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="R19" s="1" t="str">
+        <v>12.818181818181799</v>
+      </c>
+      <c r="R19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>0.95454545454543904</v>
       </c>
       <c r="S19" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5515,7 +6185,7 @@
       </c>
       <c r="F20" s="1">
         <f ca="1">IF(DoneDays&gt;D17,D17,DoneDays)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H20" s="1">
         <f ca="1">IF(DoneDays&gt;G20,G20+1,"")</f>
@@ -5625,39 +6295,39 @@
         <v>3</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K21" si="4">IF($D$16&gt;J21,J21+1,"")</f>
         <v>4</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L21" si="5">IF($D$16&gt;K21,K21+1,"")</f>
         <v>5</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="M21" si="6">IF($D$16&gt;L21,L21+1,"")</f>
         <v>6</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N21" si="7">IF($D$16&gt;M21,M21+1,"")</f>
         <v>7</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O21" si="8">IF($D$16&gt;N21,N21+1,"")</f>
         <v>8</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="P21" si="9">IF($D$16&gt;O21,O21+1,"")</f>
         <v>9</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="Q21" si="10">IF($D$16&gt;P21,P21+1,"")</f>
         <v>10</v>
       </c>
-      <c r="R21" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="R21" s="6">
+        <f t="shared" ref="R21" si="11">IF($D$16&gt;Q21,Q21+1,"")</f>
+        <v>11</v>
       </c>
       <c r="S21" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="S21" si="12">IF($D$16&gt;R21,R21+1,"")</f>
         <v/>
       </c>
       <c r="T21" s="6" t="str">
@@ -5715,1149 +6385,1099 @@
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C22" t="s">
+        <v>2.1</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1">
+        <v>40</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" ref="H22:H65" si="13">IF(OR(H$21="",$G22=""),"",G22)</f>
+        <v>40</v>
+      </c>
+      <c r="I22" s="1">
+        <v>36</v>
+      </c>
+      <c r="J22" s="1">
+        <v>32</v>
+      </c>
+      <c r="K22" s="1">
+        <v>28</v>
+      </c>
+      <c r="L22" s="1">
         <v>24</v>
       </c>
-      <c r="D22" s="1">
+      <c r="M22" s="1">
+        <v>20</v>
+      </c>
+      <c r="N22" s="1">
+        <v>16</v>
+      </c>
+      <c r="O22" s="1">
+        <v>12</v>
+      </c>
+      <c r="P22" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>4</v>
+      </c>
+      <c r="R22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="1">
-        <v>15</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" ref="H22:H66" si="4">IF(OR(H$21="",$G22=""),"",G22)</f>
-        <v>15</v>
-      </c>
-      <c r="I22" s="1">
-        <v>13</v>
-      </c>
-      <c r="J22" s="1">
-        <v>11</v>
-      </c>
-      <c r="K22" s="1">
-        <v>9</v>
-      </c>
-      <c r="L22" s="1">
-        <v>7</v>
-      </c>
-      <c r="M22" s="1">
-        <v>5</v>
-      </c>
-      <c r="N22" s="1">
-        <v>3</v>
-      </c>
-      <c r="O22" s="1">
-        <v>2</v>
-      </c>
-      <c r="P22" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0</v>
-      </c>
       <c r="AE22" s="1" t="str">
-        <f t="shared" ref="AE22:AF37" si="5">IF(OR(AE$21="",$G22=""),"",AD22)</f>
+        <f t="shared" ref="AE22:AF36" si="14">IF(OR(AE$21="",$G22=""),"",AD22)</f>
         <v/>
       </c>
       <c r="AF22" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>1.2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>34</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="F23" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="1">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="4"/>
-        <v>17</v>
+        <f t="shared" si="13"/>
+        <v>40</v>
       </c>
       <c r="I23" s="1">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J23" s="1">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K23" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L23" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M23" s="1">
+        <v>20</v>
+      </c>
+      <c r="N23" s="1">
+        <v>16</v>
+      </c>
+      <c r="O23" s="1">
+        <v>12</v>
+      </c>
+      <c r="P23" s="1">
         <v>8</v>
       </c>
-      <c r="N23" s="1">
-        <v>5</v>
-      </c>
-      <c r="O23" s="1">
-        <v>3</v>
-      </c>
-      <c r="P23" s="1">
-        <v>2</v>
-      </c>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1</v>
       </c>
       <c r="AE23" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF23" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>2.1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>35</v>
       </c>
       <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="37" t="s">
         <v>30</v>
       </c>
       <c r="F24" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="1">
+        <v>40</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="I24" s="1">
+        <v>36</v>
+      </c>
+      <c r="J24" s="1">
+        <v>32</v>
+      </c>
+      <c r="K24" s="1">
+        <v>28</v>
+      </c>
+      <c r="L24" s="1">
+        <v>24</v>
+      </c>
+      <c r="M24" s="1">
+        <v>20</v>
+      </c>
+      <c r="N24" s="1">
+        <v>16</v>
+      </c>
+      <c r="O24" s="1">
         <v>12</v>
       </c>
-      <c r="H24" s="1">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="I24" s="1">
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
-        <v>9</v>
-      </c>
-      <c r="K24" s="1">
+      <c r="P24" s="1">
         <v>8</v>
       </c>
-      <c r="L24" s="1">
-        <v>6</v>
-      </c>
-      <c r="M24" s="1">
+      <c r="Q24" s="1">
         <v>4</v>
       </c>
-      <c r="N24" s="1">
-        <v>3</v>
-      </c>
-      <c r="O24" s="1">
-        <v>2</v>
-      </c>
-      <c r="P24" s="1">
+      <c r="R24" s="1">
         <v>1</v>
       </c>
-      <c r="Q24" s="1">
-        <v>0</v>
-      </c>
       <c r="AE24" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF24" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="1">
-        <v>18</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="I25" s="1">
-        <v>17</v>
-      </c>
-      <c r="J25" s="1">
-        <v>15</v>
-      </c>
-      <c r="K25" s="1">
-        <v>13</v>
-      </c>
-      <c r="L25" s="1">
-        <v>10</v>
-      </c>
-      <c r="M25" s="1">
-        <v>7</v>
-      </c>
-      <c r="N25" s="1">
-        <v>4</v>
-      </c>
-      <c r="O25" s="1">
-        <v>3</v>
-      </c>
-      <c r="P25" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0</v>
+      <c r="F25" t="str">
+        <f t="shared" ref="F25:F62" si="15">IF(C25&lt;&gt;"","Planned","")</f>
+        <v/>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AE25" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF25" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.2">
       <c r="F26" t="str">
-        <f t="shared" ref="F26:F63" si="6">IF(C26&lt;&gt;"","Planned","")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H26" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE26" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF26" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:32" x14ac:dyDescent="0.2">
       <c r="F27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H27" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE27" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF27" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.2">
       <c r="F28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H28" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE28" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF28" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.2">
       <c r="F29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H29" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE29" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF29" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.2">
       <c r="F30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H30" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE30" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF30" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.2">
       <c r="F31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H31" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE31" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF31" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.2">
       <c r="F32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H32" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE32" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF32" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H33" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE33" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF33" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H34" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE34" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF34" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H35" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE35" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF35" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H36" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE36" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF36" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H37" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE37" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AE37:AF52" si="16">IF(OR(AE$21="",$G37=""),"",AD37)</f>
         <v/>
       </c>
       <c r="AF37" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H38" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE38" s="1" t="str">
-        <f t="shared" ref="AE38:AF53" si="7">IF(OR(AE$21="",$G38=""),"",AD38)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF38" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H39" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE39" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF39" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H40" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE40" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF40" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H41" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE41" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF41" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H42" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE42" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF42" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H43" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE43" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF43" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H44" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE44" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF44" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H45" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE45" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF45" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H46" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE46" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF46" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F47" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H47" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE47" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF47" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H48" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H49" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE49" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF49" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H50" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE50" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF50" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H51" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE51" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF51" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H52" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE52" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF52" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H53" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE53" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AE53:AF64" si="17">IF(OR(AE$21="",$G53=""),"",AD53)</f>
         <v/>
       </c>
       <c r="AF53" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H54" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE54" s="1" t="str">
-        <f t="shared" ref="AE54:AF65" si="8">IF(OR(AE$21="",$G54=""),"",AD54)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AF54" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H55" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE55" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AF55" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H56" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE56" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AF56" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H57" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE57" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AF57" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H58" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE58" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AF58" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H59" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE59" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AF59" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H60" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE60" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AF60" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H61" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I61" s="1" t="str">
+        <f t="shared" ref="I61:AD61" si="18">IF(OR(I$21="",$G61=""),"",H61)</f>
+        <v/>
+      </c>
+      <c r="J61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="K61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="N61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="O61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="P61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="R61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="S61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="U61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="W61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="X61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Y61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AA61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AB61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AC61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AD61" s="1" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AE61" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AF61" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H62" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I62" s="1" t="str">
-        <f t="shared" ref="I62:AD62" si="9">IF(OR(I$21="",$G62=""),"",H62)</f>
+        <f t="shared" ref="I62:AD62" si="19">IF(OR(I$21="",$G62=""),"",H62)</f>
         <v/>
       </c>
       <c r="J62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Q62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="R62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="S62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="T62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="V62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="X62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Y62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Z62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AA62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AB62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AC62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AD62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AE62" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AF62" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="6:32" x14ac:dyDescent="0.2">
-      <c r="F63" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="F63" t="s">
+        <v>7</v>
       </c>
       <c r="H63" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I63" s="1" t="str">
-        <f t="shared" ref="I63:AD63" si="10">IF(OR(I$21="",$G63=""),"",H63)</f>
-        <v/>
-      </c>
-      <c r="J63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="K63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="M63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="N63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="O63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="P63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Q63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="R63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="T63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="U63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="V63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="W63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="X63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Y63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Z63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AA63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AB63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AC63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD63" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE63" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AF63" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="6:32" x14ac:dyDescent="0.2">
       <c r="F64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H64" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE64" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AF64" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H65" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE65" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AF65" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="F66" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="E71"/>
-      <c r="F71" t="str">
-        <f>IF(C71&lt;&gt;"","Planned","")</f>
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="E70"/>
+      <c r="F70" t="str">
+        <f>IF(C70&lt;&gt;"","Planned","")</f>
         <v/>
       </c>
     </row>
@@ -6867,24 +7487,24 @@
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="D5:H5"/>
   </mergeCells>
-  <conditionalFormatting sqref="C26:AF65 L22:AF25">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="C25:AF64 L22:AF24">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
       <formula>$F22="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>$F22="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:AF65">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="B22:AF64">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>$F22="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
       <formula>$F22="En Progreso"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F22:F71 F10:F15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F10:F15 F22:F70">
       <formula1>"Por Hacer,En Progreso,Terminado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6897,6 +7517,1982 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AF70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="1" customWidth="1"/>
+    <col min="8" max="32" width="4.42578125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="20"/>
+    </row>
+    <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="21"/>
+      <c r="C3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="22"/>
+    </row>
+    <row r="4" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="21"/>
+      <c r="C4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="22"/>
+    </row>
+    <row r="5" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="21"/>
+      <c r="C5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="22"/>
+    </row>
+    <row r="6" spans="2:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="28"/>
+    </row>
+    <row r="8" spans="2:32" ht="18" x14ac:dyDescent="0.25">
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="10">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="10">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="4">
+        <f ca="1">SUM(OFFSET(G21,1,0,TaskRows,1))</f>
+        <v>30</v>
+      </c>
+      <c r="H17" s="4">
+        <f ca="1">IF(AND(SUM(OFFSET(H21,1,0,TaskRows,1))=0),0,SUM(OFFSET(H21,1,0,TaskRows,1)))</f>
+        <v>30</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" ref="I17:AF17" ca="1" si="0">IF(AND(SUM(OFFSET(I21,1,0,TaskRows,1))=0),"",SUM(OFFSET(I21,1,0,TaskRows,1)))</f>
+        <v>27</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R17" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="S17" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="T17" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="U17" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="V17" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="W17" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="X17" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="Y17" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="Z17" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AA17" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB17" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AC17" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AD17" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AE17" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AF17" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <f>IF(COUNTA(C22:C248)=0,1,COUNTA(C22:C248))</f>
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <f ca="1">IF(COUNTIF(H17:AF17,"&gt;0")=0,1,COUNTIF(H17:AF17,"&gt;0"))</f>
+        <v>10</v>
+      </c>
+      <c r="H18" s="1">
+        <f ca="1">IF(H21="","",$G17-$G17/($D16-1)*(H21-1))</f>
+        <v>30</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" ref="I18:AF18" ca="1" si="1">IF(I21="","",TotalEffort-TotalEffort/(ImplementationDays)*(I21-1))</f>
+        <v>27</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AC18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AD18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AE18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AF18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="H19" s="1">
+        <f t="shared" ref="H19:AF19" ca="1" si="2">IF(TREND(OFFSET($H17,0,DoneDays-TrendDays,1,TrendDays),OFFSET($H20,0,DoneDays-TrendDays,1,TrendDays),H20)&lt;0,"",TREND(OFFSET($H17,0,DoneDays-TrendDays,1,TrendDays),OFFSET($H20,0,DoneDays-TrendDays,1,TrendDays),H20))</f>
+        <v>30</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>23.999999999999996</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>20.999999999999996</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>17.999999999999996</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>14.999999999999993</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>11.999999999999993</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.9999999999999929</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.9999999999999929</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.9999999999999929</v>
+      </c>
+      <c r="R19" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="S19" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="T19" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="U19" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="V19" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="W19" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="X19" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Y19" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Z19" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AA19" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AB19" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AC19" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AD19" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AE19" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AF19" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1">
+        <f ca="1">IF(DoneDays&gt;D17,D17,DoneDays)</f>
+        <v>10</v>
+      </c>
+      <c r="H20" s="1">
+        <f ca="1">IF(DoneDays&gt;G20,G20+1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>4</v>
+      </c>
+      <c r="L20" s="1">
+        <v>5</v>
+      </c>
+      <c r="M20" s="1">
+        <v>6</v>
+      </c>
+      <c r="N20" s="1">
+        <v>7</v>
+      </c>
+      <c r="O20" s="1">
+        <v>8</v>
+      </c>
+      <c r="P20" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>10</v>
+      </c>
+      <c r="R20" s="1">
+        <v>11</v>
+      </c>
+      <c r="S20" s="1">
+        <v>12</v>
+      </c>
+      <c r="T20" s="1">
+        <v>13</v>
+      </c>
+      <c r="U20" s="1">
+        <v>14</v>
+      </c>
+      <c r="V20" s="1">
+        <v>15</v>
+      </c>
+      <c r="W20" s="1">
+        <v>16</v>
+      </c>
+      <c r="X20" s="1">
+        <v>17</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>18</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>19</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>20</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>21</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>22</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>23</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>24</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" ref="I21:AF21" si="3">IF($D$16&gt;H21,H21+1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="P21" s="6">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q21" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="R21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AC21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AD21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AE21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AF21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>3.1</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" ref="H22:W65" si="4">IF(OR(H$21="",$G22=""),"",G22)</f>
+        <v>10</v>
+      </c>
+      <c r="I22" s="1">
+        <v>9</v>
+      </c>
+      <c r="J22" s="1">
+        <v>8</v>
+      </c>
+      <c r="K22" s="1">
+        <v>7</v>
+      </c>
+      <c r="L22" s="1">
+        <v>6</v>
+      </c>
+      <c r="M22" s="1">
+        <v>5</v>
+      </c>
+      <c r="N22" s="1">
+        <v>4</v>
+      </c>
+      <c r="O22" s="1">
+        <v>3</v>
+      </c>
+      <c r="P22" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="1" t="str">
+        <f t="shared" ref="AE22:AF37" si="5">IF(OR(AE$21="",$G22=""),"",AD22)</f>
+        <v/>
+      </c>
+      <c r="AF22" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>3.2</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I23" s="1">
+        <v>9</v>
+      </c>
+      <c r="J23" s="1">
+        <v>8</v>
+      </c>
+      <c r="K23" s="1">
+        <v>7</v>
+      </c>
+      <c r="L23" s="1">
+        <v>6</v>
+      </c>
+      <c r="M23" s="1">
+        <v>5</v>
+      </c>
+      <c r="N23" s="1">
+        <v>4</v>
+      </c>
+      <c r="O23" s="1">
+        <v>3</v>
+      </c>
+      <c r="P23" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>3.3</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="1">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I24" s="1">
+        <v>9</v>
+      </c>
+      <c r="J24" s="1">
+        <v>8</v>
+      </c>
+      <c r="K24" s="1">
+        <v>7</v>
+      </c>
+      <c r="L24" s="1">
+        <v>6</v>
+      </c>
+      <c r="M24" s="1">
+        <v>5</v>
+      </c>
+      <c r="N24" s="1">
+        <v>4</v>
+      </c>
+      <c r="O24" s="1">
+        <v>3</v>
+      </c>
+      <c r="P24" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="F25" t="str">
+        <f t="shared" ref="F25:F62" si="6">IF(C25&lt;&gt;"","Planned","")</f>
+        <v/>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="F26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="F27" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="F28" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="F29" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="F30" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="F31" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="F32" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F33" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F36" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F38" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE38" s="1" t="str">
+        <f t="shared" ref="AE38:AF53" si="7">IF(OR(AE$21="",$G38=""),"",AD38)</f>
+        <v/>
+      </c>
+      <c r="AF38" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F39" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F40" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F41" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F43" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE43" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF43" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F44" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE44" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF44" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F45" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE45" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF45" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F46" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE46" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF46" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F47" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE47" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF47" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F48" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE48" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF48" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F49" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE49" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF49" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F50" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE50" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF50" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F51" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE51" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF51" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F52" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE52" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF52" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F53" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE53" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF53" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE54" s="1" t="str">
+        <f t="shared" ref="AE54:AF65" si="8">IF(OR(AE$21="",$G54=""),"",AD54)</f>
+        <v/>
+      </c>
+      <c r="AF54" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F55" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE55" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF55" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE56" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF56" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F57" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE57" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF57" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F58" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H58" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE58" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF58" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F59" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE59" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF59" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F60" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H60" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE60" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF60" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X61" s="1" t="str">
+        <f t="shared" ref="X61:AD62" si="9">IF(OR(X$21="",$G61=""),"",W61)</f>
+        <v/>
+      </c>
+      <c r="Y61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AA61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AD61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AE61" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF61" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F62" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X62" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y62" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z62" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AA62" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB62" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC62" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AD62" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AE62" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF62" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE63" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF63" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="6:32" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE64" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF64" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="E70"/>
+      <c r="F70" t="str">
+        <f>IF(C70&lt;&gt;"","Planned","")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C25:AF64 L22:AF24">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>$F22="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>$F22="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:AF64">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$F22="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$F22="En Progreso"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F10:F15 F22:F70">
+      <formula1>"Por Hacer,En Progreso,Terminado"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:AF71"/>
@@ -6954,13 +9550,13 @@
     <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="21"/>
       <c r="C3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+        <v>27</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
       <c r="I3" s="13"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
@@ -6989,13 +9585,13 @@
     <row r="4" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="21"/>
       <c r="C4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+        <v>28</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="13"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
@@ -7024,13 +9620,13 @@
     <row r="5" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="21"/>
       <c r="C5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+        <v>29</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="13"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
@@ -8763,18 +11359,18 @@
     <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:AF65 L22:AF25">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>$F22="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>$F22="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:AF65">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>$F22="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>$F22="En Progreso"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9030,17 +11626,16 @@
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF6B976E-19D9-4A12-8B5E-B576F4080915}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3245187f-2b70-4b96-af74-b65b25777eca"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="100486ed-dfc5-4b43-a390-ed80e6fa3473"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3245187f-2b70-4b96-af74-b65b25777eca"/>
-    <ds:schemaRef ds:uri="100486ed-dfc5-4b43-a390-ed80e6fa3473"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/02. PLANIFICACION/Backlog del Sprint.xlsx
+++ b/02. PLANIFICACION/Backlog del Sprint.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="522" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="522"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="25" r:id="rId1"/>
@@ -3531,7 +3531,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AF70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -4399,7 +4399,7 @@
         <v>30</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" ref="H22:I65" si="4">IF(OR(H$21="",$G22=""),"",G22)</f>
+        <f t="shared" ref="H22:H65" si="4">IF(OR(H$21="",$G22=""),"",G22)</f>
         <v>30</v>
       </c>
       <c r="I22" s="1">
@@ -4596,7 +4596,7 @@
         <v/>
       </c>
       <c r="AE25" s="1" t="str">
-        <f t="shared" ref="AE22:AF36" si="6">IF(OR(AE$21="",$G25=""),"",AD25)</f>
+        <f t="shared" ref="AE25:AF36" si="6">IF(OR(AE$21="",$G25=""),"",AD25)</f>
         <v/>
       </c>
       <c r="AF25" s="1" t="str">
@@ -7520,7 +7520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -9077,7 +9077,7 @@
         <v/>
       </c>
       <c r="AE54" s="1" t="str">
-        <f t="shared" ref="AE54:AF65" si="8">IF(OR(AE$21="",$G54=""),"",AD54)</f>
+        <f t="shared" ref="AE54:AF64" si="8">IF(OR(AE$21="",$G54=""),"",AD54)</f>
         <v/>
       </c>
       <c r="AF54" s="1" t="str">
@@ -9464,18 +9464,18 @@
     <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="C25:AF64 L22:AF24">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>$F22="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>$F22="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:AF64">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>$F22="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>$F22="En Progreso"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11359,18 +11359,18 @@
     <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:AF65 L22:AF25">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>$F22="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>$F22="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:AF65">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$F22="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$F22="En Progreso"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11388,19 +11388,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100ECBD21C84E4C4B48B27A6166FAC051E5" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="bb6739421a50b20a8dee76844e41c5f8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="100486ed-dfc5-4b43-a390-ed80e6fa3473" xmlns:ns3="3245187f-2b70-4b96-af74-b65b25777eca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="093860096c687094a446cbcfc6e32844" ns2:_="" ns3:_="">
     <xsd:import namespace="100486ed-dfc5-4b43-a390-ed80e6fa3473"/>
@@ -11577,6 +11564,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -11589,22 +11589,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05002568-7AEC-4F01-8608-7227AF087BB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E379A4C6-2860-45CA-BC84-501A5C3DA816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C989DCCD-D1ED-4B0F-8CFB-8210ED0D719A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11619,6 +11603,22 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E379A4C6-2860-45CA-BC84-501A5C3DA816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05002568-7AEC-4F01-8608-7227AF087BB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
